--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H2">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>99.1602947273922</v>
+        <v>11.497973</v>
       </c>
       <c r="N2">
-        <v>99.1602947273922</v>
+        <v>34.493919</v>
       </c>
       <c r="O2">
-        <v>0.9040276180314788</v>
+        <v>0.09461878261088343</v>
       </c>
       <c r="P2">
-        <v>0.9040276180314788</v>
+        <v>0.09461878261088341</v>
       </c>
       <c r="Q2">
-        <v>2900.038926882352</v>
+        <v>1253.578671180434</v>
       </c>
       <c r="R2">
-        <v>2900.038926882352</v>
+        <v>11282.20804062391</v>
       </c>
       <c r="S2">
-        <v>0.09610546328967029</v>
+        <v>0.0288572236775657</v>
       </c>
       <c r="T2">
-        <v>0.09610546328967029</v>
+        <v>0.02885722367756569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H3">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5269457391257</v>
+        <v>99.43577566666666</v>
       </c>
       <c r="N3">
-        <v>10.5269457391257</v>
+        <v>298.307327</v>
       </c>
       <c r="O3">
-        <v>0.09597238196852129</v>
+        <v>0.8182739724253053</v>
       </c>
       <c r="P3">
-        <v>0.09597238196852129</v>
+        <v>0.8182739724253052</v>
       </c>
       <c r="Q3">
-        <v>307.8707310075147</v>
+        <v>10841.09064510899</v>
       </c>
       <c r="R3">
-        <v>307.8707310075147</v>
+        <v>97569.81580598089</v>
       </c>
       <c r="S3">
-        <v>0.01020264209646831</v>
+        <v>0.2495605460166974</v>
       </c>
       <c r="T3">
-        <v>0.01020264209646831</v>
+        <v>0.2495605460166974</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.6762935360389</v>
+        <v>109.026058</v>
       </c>
       <c r="H4">
-        <v>89.6762935360389</v>
+        <v>327.078174</v>
       </c>
       <c r="I4">
-        <v>0.3259702830840904</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J4">
-        <v>0.3259702830840904</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.1602947273922</v>
+        <v>10.585179</v>
       </c>
       <c r="N4">
-        <v>99.1602947273922</v>
+        <v>31.755537</v>
       </c>
       <c r="O4">
-        <v>0.9040276180314788</v>
+        <v>0.0871072449638113</v>
       </c>
       <c r="P4">
-        <v>0.9040276180314788</v>
+        <v>0.0871072449638113</v>
       </c>
       <c r="Q4">
-        <v>8892.327697093753</v>
+        <v>1154.060339594382</v>
       </c>
       <c r="R4">
-        <v>8892.327697093753</v>
+        <v>10386.54305634944</v>
       </c>
       <c r="S4">
-        <v>0.2946861385655571</v>
+        <v>0.02656632417471072</v>
       </c>
       <c r="T4">
-        <v>0.2946861385655571</v>
+        <v>0.02656632417471072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H5">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.5269457391257</v>
+        <v>11.497973</v>
       </c>
       <c r="N5">
-        <v>10.5269457391257</v>
+        <v>34.493919</v>
       </c>
       <c r="O5">
-        <v>0.09597238196852129</v>
+        <v>0.09461878261088343</v>
       </c>
       <c r="P5">
-        <v>0.09597238196852129</v>
+        <v>0.09461878261088341</v>
       </c>
       <c r="Q5">
-        <v>944.0174761397902</v>
+        <v>1034.555627011772</v>
       </c>
       <c r="R5">
-        <v>944.0174761397902</v>
+        <v>9311.000643105945</v>
       </c>
       <c r="S5">
-        <v>0.03128414451853333</v>
+        <v>0.02381534068974744</v>
       </c>
       <c r="T5">
-        <v>0.03128414451853333</v>
+        <v>0.02381534068974744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.183469856862</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H6">
-        <v>156.183469856862</v>
+        <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.5677216115297711</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J6">
-        <v>0.5677216115297711</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>99.1602947273922</v>
+        <v>99.43577566666666</v>
       </c>
       <c r="N6">
-        <v>99.1602947273922</v>
+        <v>298.307327</v>
       </c>
       <c r="O6">
-        <v>0.9040276180314788</v>
+        <v>0.8182739724253053</v>
       </c>
       <c r="P6">
-        <v>0.9040276180314788</v>
+        <v>0.8182739724253052</v>
       </c>
       <c r="Q6">
-        <v>15487.19890255321</v>
+        <v>8946.954497304019</v>
       </c>
       <c r="R6">
-        <v>15487.19890255321</v>
+        <v>80522.59047573617</v>
       </c>
       <c r="S6">
-        <v>0.5132360161762515</v>
+        <v>0.2059577696217381</v>
       </c>
       <c r="T6">
-        <v>0.5132360161762515</v>
+        <v>0.2059577696217381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>156.183469856862</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H7">
-        <v>156.183469856862</v>
+        <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.5677216115297711</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J7">
-        <v>0.5677216115297711</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5269457391257</v>
+        <v>10.585179</v>
       </c>
       <c r="N7">
-        <v>10.5269457391257</v>
+        <v>31.755537</v>
       </c>
       <c r="O7">
-        <v>0.09597238196852129</v>
+        <v>0.0871072449638113</v>
       </c>
       <c r="P7">
-        <v>0.09597238196852129</v>
+        <v>0.0871072449638113</v>
       </c>
       <c r="Q7">
-        <v>1644.134912531561</v>
+        <v>952.4249619804148</v>
       </c>
       <c r="R7">
-        <v>1644.134912531561</v>
+        <v>8571.824657823734</v>
       </c>
       <c r="S7">
-        <v>0.05448559535351965</v>
+        <v>0.02192470308870617</v>
       </c>
       <c r="T7">
-        <v>0.05448559535351965</v>
+        <v>0.02192470308870616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>158.477852</v>
+      </c>
+      <c r="H8">
+        <v>475.433556</v>
+      </c>
+      <c r="I8">
+        <v>0.4433180927308344</v>
+      </c>
+      <c r="J8">
+        <v>0.4433180927308344</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>11.497973</v>
+      </c>
+      <c r="N8">
+        <v>34.493919</v>
+      </c>
+      <c r="O8">
+        <v>0.09461878261088343</v>
+      </c>
+      <c r="P8">
+        <v>0.09461878261088341</v>
+      </c>
+      <c r="Q8">
+        <v>1822.174063393996</v>
+      </c>
+      <c r="R8">
+        <v>16399.56657054596</v>
+      </c>
+      <c r="S8">
+        <v>0.04194621824357028</v>
+      </c>
+      <c r="T8">
+        <v>0.04194621824357028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>158.477852</v>
+      </c>
+      <c r="H9">
+        <v>475.433556</v>
+      </c>
+      <c r="I9">
+        <v>0.4433180927308344</v>
+      </c>
+      <c r="J9">
+        <v>0.4433180927308344</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>99.43577566666666</v>
+      </c>
+      <c r="N9">
+        <v>298.307327</v>
+      </c>
+      <c r="O9">
+        <v>0.8182739724253053</v>
+      </c>
+      <c r="P9">
+        <v>0.8182739724253052</v>
+      </c>
+      <c r="Q9">
+        <v>15758.3681396072</v>
+      </c>
+      <c r="R9">
+        <v>141825.3132564648</v>
+      </c>
+      <c r="S9">
+        <v>0.3627556567868698</v>
+      </c>
+      <c r="T9">
+        <v>0.3627556567868697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>158.477852</v>
+      </c>
+      <c r="H10">
+        <v>475.433556</v>
+      </c>
+      <c r="I10">
+        <v>0.4433180927308344</v>
+      </c>
+      <c r="J10">
+        <v>0.4433180927308344</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.585179</v>
+      </c>
+      <c r="N10">
+        <v>31.755537</v>
+      </c>
+      <c r="O10">
+        <v>0.0871072449638113</v>
+      </c>
+      <c r="P10">
+        <v>0.0871072449638113</v>
+      </c>
+      <c r="Q10">
+        <v>1677.516430955508</v>
+      </c>
+      <c r="R10">
+        <v>15097.64787859957</v>
+      </c>
+      <c r="S10">
+        <v>0.03861621770039441</v>
+      </c>
+      <c r="T10">
+        <v>0.0386162177003944</v>
       </c>
     </row>
   </sheetData>
